--- a/rpa-master/rpa-master/7.나라장터 파일 다운로드/공고목록.xlsx
+++ b/rpa-master/rpa-master/7.나라장터 파일 다운로드/공고목록.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\big\RPA\rpa-master\rpa-master\7.나라장터 파일 다운로드\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
@@ -208,39 +213,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20210600250-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20210600250&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021년 재도전 창업기업 IR 및 네트워킹 행사 위탁용역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20210610295-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20210610295&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021 실험실창업탐색팀 국내교육(기초/실전) 운영용역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20210609700-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20210609700&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021 충북청주강소연구개발특구 창업교육프로그램 운영 용역</t>
+    <t>20220348628-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20220348628&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 전라북도콘텐츠코리아랩 콘텐츠 창업 패키지 지원 운영 용역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220347646-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20220347646&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 창업도약패키지지원사업 「I-CORN 오픈이노베이션 밋업 프로그램」 운영 용역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220345539-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20220345539&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업진흥원 경영가치체계 및 중장기 경영전략 개선 용역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,39 +265,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20210600250-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20210600250&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021년 재도전 창업기업 IR 및 네트워킹 행사 위탁용역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20210610295-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20210610295&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021 실험실창업탐색팀 국내교육(기초/실전) 운영용역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20210609700-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20210609700&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021 충북청주강소연구개발특구 창업교육프로그램 운영 용역</t>
+    <t>20220348628-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20220348628&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 전라북도콘텐츠코리아랩 콘텐츠 창업 패키지 지원 운영 용역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220347646-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20220347646&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 창업도약패키지지원사업 「I-CORN 오픈이노베이션 밋업 프로그램」 운영 용역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220345539-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.g2b.go.kr:8081/ep/invitation/publish/bidInfoDtl.do?bidno=20220345539&amp;bidseq=00&amp;releaseYn=Y&amp;taskClCd=5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업진흥원 경영가치체계 및 중장기 경영전략 개선 용역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,7 +693,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>2021060025000</v>
+        <v>2022034862800</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -702,7 +707,7 @@
         <v>63</v>
       </c>
       <c r="D3">
-        <v>2021061029500</v>
+        <v>2022034764600</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -716,7 +721,7 @@
         <v>66</v>
       </c>
       <c r="D4">
-        <v>2021060970000</v>
+        <v>2022034553900</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
